--- a/tests/Application.UnitTests/Assets/TestSheet.xlsx
+++ b/tests/Application.UnitTests/Assets/TestSheet.xlsx
@@ -1,12 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="Docto"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Saved translations" sheetId="1" r:id="rId4"/>
+    <sheet name="Saved translations" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1647613270" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1647613270" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1647613270" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1647613270"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1418,102 +1430,1337 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1647613270" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3D3D"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="76" fgClr="00FF0000" bgLvl="24" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9E9E"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="38" fgClr="00FF0000" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0FFE0"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="12" fgClr="0000FF00" bgLvl="88" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFE0"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="12" fgClr="00FFFF00" bgLvl="88" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE0E0"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="12" fgClr="00FF0000" bgLvl="88" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EFF9E"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="38" fgClr="0000FF00" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5C5C"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="64" fgClr="00FF0000" bgLvl="36" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800101"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="50" fgClr="00FF0000" bgLvl="50" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF3D"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="76" fgClr="00FFFF00" bgLvl="24" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF5C"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="64" fgClr="00FFFF00" bgLvl="36" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF018001"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="50" fgClr="0000FF00" bgLvl="50" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A3A3"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="64" fgClr="0000FFFF" bgLvl="36" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00D1D1"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="82" fgClr="0000FFFF" bgLvl="18" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5C5CFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="64" fgClr="000000FF" bgLvl="36" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9E9EFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="38" fgClr="000000FF" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF9E"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808001"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="50" fgClr="00FFFF00" bgLvl="50" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3A300"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="64" fgClr="00FFFF00" bgLvl="36" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1D100"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="82" fgClr="00FFFF00" bgLvl="18" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF018080"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="50" fgClr="0000FFFF" bgLvl="50" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000D1"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="82" fgClr="000000FF" bgLvl="18" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="100" fgClr="000000FF" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D3DFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="76" fgClr="000000FF" bgLvl="24" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3DFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="76" fgClr="0000FFFF" bgLvl="24" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5CFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="64" fgClr="0000FFFF" bgLvl="36" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5CFF5C"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="64" fgClr="0000FF00" bgLvl="36" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A300"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="64" fgClr="0000FF00" bgLvl="36" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00D100"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="82" fgClr="0000FF00" bgLvl="18" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3DFF3D"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="76" fgClr="0000FF00" bgLvl="24" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0FFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="12" fgClr="0000FFFF" bgLvl="88" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1647613270" type="1" fgLvl="100" fgClr="000000FF" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="39">
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1647613270"/>
+        </ext>
+      </extLst>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1647613270" count="1">
+        <pm:charStyle name="Normal" fontId="0" Id="1"/>
+      </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1647613270" count="55">
+        <pm:color name="Color 24" rgb="808001"/>
+        <pm:color name="Color 25" rgb="A3A300"/>
+        <pm:color name="Color 26" rgb="D1D100"/>
+        <pm:color name="Color 27" rgb="FF3D3D"/>
+        <pm:color name="Color 28" rgb="FF5C5C"/>
+        <pm:color name="Color 29" rgb="FFFF5C"/>
+        <pm:color name="Color 30" rgb="FFFF9E"/>
+        <pm:color name="Color 31" rgb="9EFF9E"/>
+        <pm:color name="Color 32" rgb="FF9E9E"/>
+        <pm:color name="Color 33" rgb="018080"/>
+        <pm:color name="Color 34" rgb="00A3A3"/>
+        <pm:color name="Color 35" rgb="00D1D1"/>
+        <pm:color name="Color 36" rgb="3D3DFF"/>
+        <pm:color name="Color 37" rgb="5C5CFF"/>
+        <pm:color name="Color 38" rgb="9E9EFF"/>
+        <pm:color name="Color 39" rgb="FFE0FF"/>
+        <pm:color name="Color 40" rgb="9EFFFF"/>
+        <pm:color name="Color 41" rgb="5CFF5C"/>
+        <pm:color name="Color 42" rgb="3DFF3D"/>
+        <pm:color name="Color 43" rgb="00D100"/>
+        <pm:color name="Color 44" rgb="00A300"/>
+        <pm:color name="Color 45" rgb="018001"/>
+        <pm:color name="Color 46" rgb="3DFFFF"/>
+        <pm:color name="Color 47" rgb="5CFFFF"/>
+        <pm:color name="Color 48" rgb="E0FFFF"/>
+        <pm:color name="Color 49" rgb="E0E0FF"/>
+        <pm:color name="Color 50" rgb="0000D1"/>
+        <pm:color name="Color 51" rgb="010180"/>
+        <pm:color name="Color 52" rgb="F0F0E0"/>
+        <pm:color name="Color 53" rgb="0000A3"/>
+        <pm:color name="Color 54" rgb="FF3DFF"/>
+        <pm:color name="Color 55" rgb="FF5CFF"/>
+        <pm:color name="Color 56" rgb="E0FFE0"/>
+        <pm:color name="Color 57" rgb="FFFFE0"/>
+        <pm:color name="Color 58" rgb="FFE0E0"/>
+        <pm:color name="Color 59" rgb="D100D1"/>
+        <pm:color name="Color 60" rgb="9E9E3D"/>
+        <pm:color name="Color 61" rgb="ADAD5C"/>
+        <pm:color name="Color 62" rgb="D9D9D9"/>
+        <pm:color name="Color 63" rgb="919191"/>
+        <pm:color name="Color 64" rgb="B5B5B5"/>
+        <pm:color name="Color 65" rgb="800180"/>
+        <pm:color name="Color 66" rgb="A300A3"/>
+        <pm:color name="Color 67" rgb="686800"/>
+        <pm:color name="Color 68" rgb="FFFF3D"/>
+        <pm:color name="Color 69" rgb="D10000"/>
+        <pm:color name="Color 70" rgb="A30000"/>
+        <pm:color name="Color 71" rgb="800101"/>
+        <pm:color name="Color 72" rgb="FF9EFF"/>
+        <pm:color name="Color 73" rgb="CECE9E"/>
+        <pm:color name="Color 74" rgb="515100"/>
+        <pm:color name="Color 75" rgb="6B6B6B"/>
+        <pm:color name="Color 76" rgb="474747"/>
+        <pm:color name="Color 77" rgb="404001"/>
+        <pm:color name="Color 78" rgb="242424"/>
+      </pm:colors>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface="SimSun"/>
+        <a:cs typeface="Times New Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1525,3411 +2772,3500 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="B184" zoomScale="220" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="13" defaultColWidth="14.432432" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="I5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="I6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="I7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="I8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="I9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="I10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="I11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="I12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="I13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="I14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="I15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="I16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="I17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="I18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="I19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="I20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="I21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="I22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="I23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="I24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="I25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="I26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="I27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="I28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="I29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="I30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="I31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="I32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="I33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="I34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="I35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="I36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="I37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="I38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="I39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="I40" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="I41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="I42" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="I43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="I44" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="I45" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="I46" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="I47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="I48" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
+    <row r="49" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="I49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
+    <row r="50" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="I50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="s">
+    <row r="51" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="I51" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="I52" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="I53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="s">
+    <row r="54" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="I54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
+    <row r="55" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="I55" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1" t="s">
+    <row r="56" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="I56" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
+    <row r="57" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="I57" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
+    <row r="58" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="I58" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
+    <row r="59" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="I59" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
+    <row r="60" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="I60" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
+    <row r="61" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="I61" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
+    <row r="62" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="I62" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1" t="s">
+    <row r="63" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="I63" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
+    <row r="64" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="I64" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="1" t="s">
+    <row r="65" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="I65" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="s">
+    <row r="66" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="I66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="1" t="s">
+    <row r="67" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="I67" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
+    <row r="68" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="I68" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1" t="s">
+    <row r="69" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="I69" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
+    <row r="70" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="I70" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1" t="s">
+    <row r="71" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="I71" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="1" t="s">
+    <row r="72" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="I72" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="1" t="s">
+    <row r="73" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="I73" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="1" t="s">
+    <row r="74" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="I74" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1" t="s">
+    <row r="75" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="I75" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="1" t="s">
+    <row r="76" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="I76" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="1" t="s">
+    <row r="77" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="I77" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="1" t="s">
+    <row r="78" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="I78" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="1" t="s">
+    <row r="79" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="I79" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1" t="s">
+    <row r="80" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="I80" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="1" t="s">
+    <row r="81" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="I81" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="1" t="s">
+    <row r="82" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="I82" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="1" t="s">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="I83" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="1" t="s">
+    <row r="84" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="I84" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="1" t="s">
+    <row r="85" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="I85" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="1" t="s">
+    <row r="86" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="I86" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1" t="s">
+    <row r="87" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="I87" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="1" t="s">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="I88" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="1" t="s">
+    <row r="89" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="I89" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="1" t="s">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="I90" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1" t="s">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="I91" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="1" t="s">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="I92" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1" t="s">
+    <row r="93" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="I93" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="1" t="s">
+    <row r="94" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="I94" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="1" t="s">
+    <row r="95" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="I95" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="1" t="s">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="I96" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="1" t="s">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="I97" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="1" t="s">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="I98" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1" t="s">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="I99" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="1" t="s">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="I100" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" s="1" t="s">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="I101" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="1" t="s">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="I102" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="1" t="s">
+    <row r="103" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="I103" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="1" t="s">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="I104" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="1" t="s">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="I105" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="1" t="s">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="I106" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="1" t="s">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="I107" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="1" t="s">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="I108" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" s="1" t="s">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="I109" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="1" t="s">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="I110" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="1" t="s">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="I111" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="1" t="s">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="I112" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113" s="1" t="s">
+    <row r="113" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="I113" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" s="1" t="s">
+    <row r="114" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="I114" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="1" t="s">
+    <row r="115" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="I115" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="1" t="s">
+    <row r="116" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="I116" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117" s="1" t="s">
+    <row r="117" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="I117" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="1" t="s">
+    <row r="118" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="I118" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="1" t="s">
+    <row r="119" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="I119" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C120" s="1" t="s">
+    <row r="120" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="I120" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" s="1" t="s">
+    <row r="121" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="I121" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" s="1" t="s">
+    <row r="122" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="I122" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123" s="1" t="s">
+    <row r="123" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="I123" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="1" t="s">
+    <row r="124" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="I124" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" s="1" t="s">
+    <row r="125" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="I125" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126" s="1" t="s">
+    <row r="126" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="I126" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" s="1" t="s">
+    <row r="127" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="I127" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128" s="1" t="s">
+    <row r="128" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="I128" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C129" s="1" t="s">
+    <row r="129" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="I129" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C130" s="1" t="s">
+    <row r="130" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="I130" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" s="1" t="s">
+    <row r="131" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="I131" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C132" s="1" t="s">
+    <row r="132" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="I132" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C133" s="1" t="s">
+    <row r="133" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="I133" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134" s="1" t="s">
+    <row r="134" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="I134" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" s="1" t="s">
+    <row r="135" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="I135" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" s="1" t="s">
+    <row r="136" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="I136" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="1" t="s">
+    <row r="137" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="I137" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C138" s="1" t="s">
+    <row r="138" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="I138" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C139" s="1" t="s">
+    <row r="139" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="I139" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" s="1" t="s">
+    <row r="140" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="I140" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C141" s="1" t="s">
+    <row r="141" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="I141" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C142" s="1" t="s">
+    <row r="142" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="I142" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C143" s="1" t="s">
+    <row r="143" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="I143" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C144" s="1" t="s">
+    <row r="144" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="I144" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C145" s="1" t="s">
+    <row r="145" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="I145" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C146" s="1" t="s">
+    <row r="146" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="I146" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" s="1" t="s">
+    <row r="147" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="I147" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" s="1" t="s">
+    <row r="148" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="I148" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C149" s="1" t="s">
+    <row r="149" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="I149" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C150" s="1" t="s">
+    <row r="150" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="I150" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C151" s="1" t="s">
+    <row r="151" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="I151" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C152" s="1" t="s">
+    <row r="152" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="I152" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C153" s="1" t="s">
+    <row r="153" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="I153" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C154" s="1" t="s">
+    <row r="154" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="I154" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155" s="1" t="s">
+    <row r="155" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="I155" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156" s="1" t="s">
+    <row r="156" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="I156" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" s="1" t="s">
+    <row r="157" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="I157" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C158" s="1" t="s">
+    <row r="158" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="I158" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" s="1" t="s">
+    <row r="159" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="I159" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C160" s="1" t="s">
+    <row r="160" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="I160" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161" s="1" t="s">
+    <row r="161" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="I161" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162" s="1" t="s">
+    <row r="162" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="I162" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C163" s="1" t="s">
+    <row r="163" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="I163" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C164" s="1" t="s">
+    <row r="164" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="I164" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B165" s="1" t="s">
+    <row r="165" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
         <v>330</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="I165" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C166" s="1" t="s">
+    <row r="166" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="I166" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C167" s="1" t="s">
+    <row r="167" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="I167" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C168" s="1" t="s">
+    <row r="168" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="I168" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C169" s="1" t="s">
+    <row r="169" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="I169" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C170" s="1" t="s">
+    <row r="170" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="I170" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171" s="1" t="s">
+    <row r="171" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="I171" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172" s="1" t="s">
+    <row r="172" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="I172" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C173" s="1" t="s">
+    <row r="173" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="I173" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174" s="1" t="s">
+    <row r="174" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="I174" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C175" s="1" t="s">
+    <row r="175" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="I175" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C176" s="1" t="s">
+    <row r="176" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="I176" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C177" s="1" t="s">
+    <row r="177" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="I177" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C178" s="1" t="s">
+    <row r="178" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="I178" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C179" s="1" t="s">
+    <row r="179" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="I179" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C180" s="1" t="s">
+    <row r="180" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="I180" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C181" s="1" t="s">
+    <row r="181" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="I181" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C182" s="1" t="s">
+    <row r="182" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="I182" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C183" s="1" t="s">
+    <row r="183" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="I183" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C184" s="1" t="s">
+    <row r="184" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="I184" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C185" s="1" t="s">
+    <row r="185" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="I185" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C186" s="1" t="s">
+    <row r="186" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="I186" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C187" s="1" t="s">
+    <row r="187" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="I187" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C188" s="1" t="s">
+    <row r="188" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="I188" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C189" s="1" t="s">
+    <row r="189" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="I189" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C190" s="1" t="s">
+    <row r="190" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="I190" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C191" s="1" t="s">
+    <row r="191" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="I191" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C192" s="1" t="s">
+    <row r="192" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="I192" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C193" s="1" t="s">
+    <row r="193" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="I193" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C194" s="1" t="s">
+    <row r="194" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="I194" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C195" s="1" t="s">
+    <row r="195" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="I195" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C196" s="1" t="s">
+    <row r="196" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="I196" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C197" s="1" t="s">
+    <row r="197" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="I197" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C198" s="1" t="s">
+    <row r="198" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="I198" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C199" s="1" t="s">
+    <row r="199" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="I199" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C200" s="1" t="s">
+    <row r="200" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="I200" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C201" s="1" t="s">
+    <row r="201" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="I201" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C202" s="1" t="s">
+    <row r="202" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="I202" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C203" s="1" t="s">
+    <row r="203" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="I203" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C204" s="1" t="s">
+    <row r="204" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="I204" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C205" s="1" t="s">
+    <row r="205" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="I205" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C206" s="1" t="s">
+    <row r="206" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="I206" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C207" s="1" t="s">
+    <row r="207" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="I207" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C208" s="1" t="s">
+    <row r="208" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="I208" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C209" s="1" t="s">
+    <row r="209" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="I209" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C210" s="1" t="s">
+    <row r="210" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="I210" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C211" s="1" t="s">
+    <row r="211" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="I211" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C212" s="1" t="s">
+    <row r="212" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A212" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="I212" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C213" s="1" t="s">
+    <row r="213" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="I213" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C214" s="1" t="s">
+    <row r="214" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="I214" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C215" s="1" t="s">
+    <row r="215" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="I215" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C216" s="1" t="s">
+    <row r="216" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A216" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="I216" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C217" s="1" t="s">
+    <row r="217" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="I217" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C218" s="1" t="s">
+    <row r="218" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A218" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="I218" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C219" s="1" t="s">
+    <row r="219" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="I219" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C220" s="1" t="s">
+    <row r="220" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="I220" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C221" s="1" t="s">
+    <row r="221" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="I221" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C222" s="1" t="s">
+    <row r="222" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="I222" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C223" s="1" t="s">
+    <row r="223" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="I223" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C224" s="1" t="s">
+    <row r="224" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A224" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="I224" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C225" s="1" t="s">
+    <row r="225" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A225" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="I225" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C226" s="1" t="s">
+    <row r="226" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A226" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="I226" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C227" s="1" t="s">
+    <row r="227" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A227" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="I227" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C228" s="1" t="s">
+    <row r="228" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A228" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="I228" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C229" s="1" t="s">
+    <row r="229" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A229" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="I229" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C230" s="1" t="s">
+    <row r="230" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="I230" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C231" s="1" t="s">
+    <row r="231" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A231" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="I231" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C232" s="1" t="s">
+    <row r="232" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A232" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="I232" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C233" s="1" t="s">
+    <row r="233" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="I233" t="s">
         <v>466</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1647613270" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1647613270" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1647613270" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1647613270" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1647613270" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1647613270" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>